--- a/Harjoitustyö_Ryhmä5_Jeff/Data/Toimittajarekisteri.xlsx
+++ b/Harjoitustyö_Ryhmä5_Jeff/Data/Toimittajarekisteri.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73329eda14c90fb5/Lipasto/Maisteri/Digitaaliset liiketoimintaprosessit/UiPath_Jeff/UiPath_Jeff/Harjoitustyö_Ryhmä5_Jeff/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="8_{C0D8A6C5-9706-4F4B-BD60-E9827B8553E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF645797-2BE4-4615-B605-B03AFE4F7FD2}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="8_{C0D8A6C5-9706-4F4B-BD60-E9827B8553E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2603CF16-64F7-43A5-AFF4-3FAE25171AB3}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="405" windowWidth="28800" windowHeight="15345" xr2:uid="{F0EDB271-B87F-4FD9-8480-9C455521B989}"/>
   </bookViews>
@@ -430,7 +430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1A0006-AF6A-4106-8A0D-947B7BA43FF6}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A727" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>

--- a/Harjoitustyö_Ryhmä5_Jeff/Data/Toimittajarekisteri.xlsx
+++ b/Harjoitustyö_Ryhmä5_Jeff/Data/Toimittajarekisteri.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73329eda14c90fb5/Lipasto/Maisteri/Digitaaliset liiketoimintaprosessit/UiPath_Jeff/UiPath_Jeff/Harjoitustyö_Ryhmä5_Jeff/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Valtteri.000\Documents\UiPath\Jeff\Harjoitustyö_Ryhmä5_Jeff\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="8_{C0D8A6C5-9706-4F4B-BD60-E9827B8553E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2603CF16-64F7-43A5-AFF4-3FAE25171AB3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC259DB-C49A-4283-A0C9-576B0D1F8069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="405" windowWidth="28800" windowHeight="15345" xr2:uid="{F0EDB271-B87F-4FD9-8480-9C455521B989}"/>
   </bookViews>

--- a/Harjoitustyö_Ryhmä5_Jeff/Data/Toimittajarekisteri.xlsx
+++ b/Harjoitustyö_Ryhmä5_Jeff/Data/Toimittajarekisteri.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Valtteri.000\Documents\UiPath\Jeff\Harjoitustyö_Ryhmä5_Jeff\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC259DB-C49A-4283-A0C9-576B0D1F8069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02815CA-BF36-4947-A821-8CCDF77B0E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="405" windowWidth="28800" windowHeight="15345" xr2:uid="{F0EDB271-B87F-4FD9-8480-9C455521B989}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Toimittajanro</t>
   </si>
@@ -77,6 +77,15 @@
   </si>
   <si>
     <t>SAVONLINJA OY</t>
+  </si>
+  <si>
+    <t>Osoite</t>
+  </si>
+  <si>
+    <t>Postinumero</t>
+  </si>
+  <si>
+    <t>Kaupunki</t>
   </si>
 </sst>
 </file>
@@ -428,7 +437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1A0006-AF6A-4106-8A0D-947B7BA43FF6}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A727" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
@@ -436,7 +445,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,8 +458,17 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>11</v>
       </c>
@@ -464,7 +482,7 @@
         <v>21376310.689999998</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>67122</v>
       </c>
@@ -478,7 +496,7 @@
         <v>680000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>38975</v>
       </c>
@@ -492,7 +510,7 @@
         <v>547813.35</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>23551</v>
       </c>
@@ -506,7 +524,7 @@
         <v>454948.55999999959</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>34912</v>
       </c>

--- a/Harjoitustyö_Ryhmä5_Jeff/Data/Toimittajarekisteri.xlsx
+++ b/Harjoitustyö_Ryhmä5_Jeff/Data/Toimittajarekisteri.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Valtteri.000\Documents\UiPath\Jeff\Harjoitustyö_Ryhmä5_Jeff\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02815CA-BF36-4947-A821-8CCDF77B0E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45A64C8-5CB4-40F2-8D6C-028F44648AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="405" windowWidth="28800" windowHeight="15345" xr2:uid="{F0EDB271-B87F-4FD9-8480-9C455521B989}"/>
+    <workbookView xWindow="0" yWindow="570" windowWidth="15360" windowHeight="10665" xr2:uid="{F0EDB271-B87F-4FD9-8480-9C455521B989}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Toimittajanro</t>
   </si>
@@ -49,43 +49,49 @@
     <t>Y-Tunnus</t>
   </si>
   <si>
+    <t>Osoite</t>
+  </si>
+  <si>
+    <t>Postinumero</t>
+  </si>
+  <si>
+    <t>Kaupunki</t>
+  </si>
+  <si>
+    <t>Tilinro</t>
+  </si>
+  <si>
+    <t>Pankki</t>
+  </si>
+  <si>
+    <t>0725937-3</t>
+  </si>
+  <si>
+    <t>E-K SOSIAALI- JA TERVEYSPIIRI</t>
+  </si>
+  <si>
+    <t>1565583-5</t>
+  </si>
+  <si>
+    <t>YIT SUOMI OY</t>
+  </si>
+  <si>
     <t>0162017-2</t>
   </si>
   <si>
     <t>SAIMAAN TUKIPALVELUT OY</t>
   </si>
   <si>
-    <t>0725937-3</t>
-  </si>
-  <si>
-    <t>E-K SOSIAALI- JA TERVEYSPIIRI</t>
-  </si>
-  <si>
     <t>1796558-9</t>
   </si>
   <si>
     <t>LPR ENERGIA OY</t>
   </si>
   <si>
-    <t>1565583-5</t>
-  </si>
-  <si>
-    <t>YIT SUOMI OY</t>
-  </si>
-  <si>
     <t>0165069-7</t>
   </si>
   <si>
     <t>SAVONLINJA OY</t>
-  </si>
-  <si>
-    <t>Osoite</t>
-  </si>
-  <si>
-    <t>Postinumero</t>
-  </si>
-  <si>
-    <t>Kaupunki</t>
   </si>
 </sst>
 </file>
@@ -437,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1A0006-AF6A-4106-8A0D-947B7BA43FF6}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A727" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
@@ -445,7 +451,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -459,80 +465,86 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>16</v>
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>21376310.689999998</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>67122</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>680000</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>38975</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D4">
         <v>547813.35</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>23551</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D5">
         <v>454948.55999999959</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>34912</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D6">
         <v>439706.23000000004</v>

--- a/Harjoitustyö_Ryhmä5_Jeff/Data/Toimittajarekisteri.xlsx
+++ b/Harjoitustyö_Ryhmä5_Jeff/Data/Toimittajarekisteri.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Valtteri.000\Documents\UiPath\Jeff\Harjoitustyö_Ryhmä5_Jeff\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45A64C8-5CB4-40F2-8D6C-028F44648AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401EE4A2-852F-4E07-A9E4-21B3B03517CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="570" windowWidth="15360" windowHeight="10665" xr2:uid="{F0EDB271-B87F-4FD9-8480-9C455521B989}"/>
   </bookViews>
@@ -70,12 +70,6 @@
     <t>E-K SOSIAALI- JA TERVEYSPIIRI</t>
   </si>
   <si>
-    <t>1565583-5</t>
-  </si>
-  <si>
-    <t>YIT SUOMI OY</t>
-  </si>
-  <si>
     <t>0162017-2</t>
   </si>
   <si>
@@ -88,10 +82,16 @@
     <t>LPR ENERGIA OY</t>
   </si>
   <si>
-    <t>0165069-7</t>
-  </si>
-  <si>
-    <t>SAVONLINJA OY</t>
+    <t>2752472-8</t>
+  </si>
+  <si>
+    <t>PALLAS RAKENNUS KAAKKOIS-SUOMI</t>
+  </si>
+  <si>
+    <t>0246246-0</t>
+  </si>
+  <si>
+    <t>KANSANELÄKELAITOS</t>
   </si>
 </sst>
 </file>
@@ -491,21 +491,21 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>21376310.689999998</v>
+        <v>21376090</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>67122</v>
+        <v>77161</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D3">
-        <v>680000</v>
+        <v>710000</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -513,13 +513,13 @@
         <v>38975</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>547813.35</v>
+        <v>450920.8</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -527,18 +527,18 @@
         <v>23551</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>454948.55999999959</v>
+        <v>264915.64999999985</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>34912</v>
+        <v>59753</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -547,7 +547,7 @@
         <v>18</v>
       </c>
       <c r="D6">
-        <v>439706.23000000004</v>
+        <v>261659.6</v>
       </c>
     </row>
   </sheetData>

--- a/Harjoitustyö_Ryhmä5_Jeff/Data/Toimittajarekisteri.xlsx
+++ b/Harjoitustyö_Ryhmä5_Jeff/Data/Toimittajarekisteri.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Valtteri.000\Documents\UiPath\Jeff\Harjoitustyö_Ryhmä5_Jeff\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401EE4A2-852F-4E07-A9E4-21B3B03517CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0809EC-18BA-4278-AE0F-F75927B820AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="570" windowWidth="15360" windowHeight="10665" xr2:uid="{F0EDB271-B87F-4FD9-8480-9C455521B989}"/>
   </bookViews>
@@ -76,10 +76,10 @@
     <t>SAIMAAN TUKIPALVELUT OY</t>
   </si>
   <si>
-    <t>1796558-9</t>
-  </si>
-  <si>
-    <t>LPR ENERGIA OY</t>
+    <t>1565583-5</t>
+  </si>
+  <si>
+    <t>YIT SUOMI OY</t>
   </si>
   <si>
     <t>2752472-8</t>
@@ -88,10 +88,10 @@
     <t>PALLAS RAKENNUS KAAKKOIS-SUOMI</t>
   </si>
   <si>
-    <t>0246246-0</t>
-  </si>
-  <si>
-    <t>KANSANELÄKELAITOS</t>
+    <t>0206823-6</t>
+  </si>
+  <si>
+    <t>LPR MUSIIKKIOPISTO</t>
   </si>
 </sst>
 </file>
@@ -491,63 +491,63 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>21376090</v>
+        <v>21342409.199999999</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>77161</v>
+        <v>67122</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>710000</v>
+        <v>1010000</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>38975</v>
+        <v>77161</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>450920.8</v>
+        <v>622500</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>23551</v>
+        <v>425</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D5">
-        <v>264915.64999999985</v>
+        <v>551385</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>59753</v>
+        <v>38975</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>261659.6</v>
+        <v>449532.92999999988</v>
       </c>
     </row>
   </sheetData>

--- a/Harjoitustyö_Ryhmä5_Jeff/Data/Toimittajarekisteri.xlsx
+++ b/Harjoitustyö_Ryhmä5_Jeff/Data/Toimittajarekisteri.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Valtteri.000\Documents\UiPath\Jeff\Harjoitustyö_Ryhmä5_Jeff\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0809EC-18BA-4278-AE0F-F75927B820AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F535F1-D860-498C-B71A-D55245652788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="570" windowWidth="15360" windowHeight="10665" xr2:uid="{F0EDB271-B87F-4FD9-8480-9C455521B989}"/>
   </bookViews>
@@ -76,22 +76,22 @@
     <t>SAIMAAN TUKIPALVELUT OY</t>
   </si>
   <si>
-    <t>1565583-5</t>
-  </si>
-  <si>
-    <t>YIT SUOMI OY</t>
-  </si>
-  <si>
     <t>2752472-8</t>
   </si>
   <si>
     <t>PALLAS RAKENNUS KAAKKOIS-SUOMI</t>
   </si>
   <si>
-    <t>0206823-6</t>
-  </si>
-  <si>
-    <t>LPR MUSIIKKIOPISTO</t>
+    <t>0165069-7</t>
+  </si>
+  <si>
+    <t>SAVONLINJA OY</t>
+  </si>
+  <si>
+    <t>0246246-0</t>
+  </si>
+  <si>
+    <t>KANSANELÄKELAITOS</t>
   </si>
 </sst>
 </file>
@@ -491,12 +491,12 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>21342409.199999999</v>
+        <v>21376131.199999999</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>67122</v>
+        <v>77161</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -505,49 +505,49 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>1010000</v>
+        <v>773505.07000000007</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>77161</v>
+        <v>38975</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>622500</v>
+        <v>533817.04</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>425</v>
+        <v>34912</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>551385</v>
+        <v>492675.55</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>38975</v>
+        <v>10253</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>449532.92999999988</v>
+        <v>265622.78999999998</v>
       </c>
     </row>
   </sheetData>

--- a/Harjoitustyö_Ryhmä5_Jeff/Data/Toimittajarekisteri.xlsx
+++ b/Harjoitustyö_Ryhmä5_Jeff/Data/Toimittajarekisteri.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Valtteri.000\Documents\UiPath\Jeff\Harjoitustyö_Ryhmä5_Jeff\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/75ad193d0551a0b3/Asiakirjat/GitHub/UiPath_Jeff/Harjoitustyö_Ryhmä5_Jeff/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F535F1-D860-498C-B71A-D55245652788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{C8F535F1-D860-498C-B71A-D55245652788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{894C112A-C70E-407A-9C30-6F80B47159E3}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="570" windowWidth="15360" windowHeight="10665" xr2:uid="{F0EDB271-B87F-4FD9-8480-9C455521B989}"/>
+    <workbookView xWindow="2507" yWindow="0" windowWidth="17493" windowHeight="12613" xr2:uid="{F0EDB271-B87F-4FD9-8480-9C455521B989}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,68 +32,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>Toimittajanro</t>
-  </si>
-  <si>
-    <t>Toimittaja</t>
-  </si>
-  <si>
-    <t>Summa</t>
-  </si>
-  <si>
-    <t>Y-Tunnus</t>
-  </si>
-  <si>
-    <t>Osoite</t>
-  </si>
-  <si>
-    <t>Postinumero</t>
-  </si>
-  <si>
-    <t>Kaupunki</t>
-  </si>
-  <si>
-    <t>Tilinro</t>
-  </si>
-  <si>
-    <t>Pankki</t>
-  </si>
-  <si>
-    <t>0725937-3</t>
-  </si>
-  <si>
-    <t>E-K SOSIAALI- JA TERVEYSPIIRI</t>
-  </si>
-  <si>
-    <t>0162017-2</t>
-  </si>
-  <si>
-    <t>SAIMAAN TUKIPALVELUT OY</t>
-  </si>
-  <si>
-    <t>2752472-8</t>
-  </si>
-  <si>
-    <t>PALLAS RAKENNUS KAAKKOIS-SUOMI</t>
-  </si>
-  <si>
-    <t>0165069-7</t>
-  </si>
-  <si>
-    <t>SAVONLINJA OY</t>
-  </si>
-  <si>
-    <t>0246246-0</t>
-  </si>
-  <si>
-    <t>KANSANELÄKELAITOS</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -443,114 +381,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1A0006-AF6A-4106-8A0D-947B7BA43FF6}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A727" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>21376131.199999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>77161</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3">
-        <v>773505.07000000007</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>38975</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4">
-        <v>533817.04</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>34912</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5">
-        <v>492675.55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>10253</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6">
-        <v>265622.78999999998</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Harjoitustyö_Ryhmä5_Jeff/Data/Toimittajarekisteri.xlsx
+++ b/Harjoitustyö_Ryhmä5_Jeff/Data/Toimittajarekisteri.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/75ad193d0551a0b3/Asiakirjat/GitHub/UiPath_Jeff/Harjoitustyö_Ryhmä5_Jeff/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{C8F535F1-D860-498C-B71A-D55245652788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{894C112A-C70E-407A-9C30-6F80B47159E3}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{C8F535F1-D860-498C-B71A-D55245652788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A3500D3-A70A-43B7-91D5-A559AB89FE19}"/>
   <bookViews>
-    <workbookView xWindow="2507" yWindow="0" windowWidth="17493" windowHeight="12613" xr2:uid="{F0EDB271-B87F-4FD9-8480-9C455521B989}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="20186" windowHeight="12800" xr2:uid="{F0EDB271-B87F-4FD9-8480-9C455521B989}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,68 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>Toimittajanro</t>
+  </si>
+  <si>
+    <t>Toimittaja</t>
+  </si>
+  <si>
+    <t>Summa</t>
+  </si>
+  <si>
+    <t>Y-Tunnus</t>
+  </si>
+  <si>
+    <t>Osoite</t>
+  </si>
+  <si>
+    <t>Postinumero</t>
+  </si>
+  <si>
+    <t>Kaupunki</t>
+  </si>
+  <si>
+    <t>Tilinro</t>
+  </si>
+  <si>
+    <t>Pankki</t>
+  </si>
+  <si>
+    <t>0725937-3</t>
+  </si>
+  <si>
+    <t>E-K SOSIAALI- JA TERVEYSPIIRI</t>
+  </si>
+  <si>
+    <t>0162017-2</t>
+  </si>
+  <si>
+    <t>SAIMAAN TUKIPALVELUT OY</t>
+  </si>
+  <si>
+    <t>2752472-8</t>
+  </si>
+  <si>
+    <t>PALLAS RAKENNUS KAAKKOIS-SUOMI</t>
+  </si>
+  <si>
+    <t>2303725-2</t>
+  </si>
+  <si>
+    <t>PEAB INFRA OY</t>
+  </si>
+  <si>
+    <t>1796558-9</t>
+  </si>
+  <si>
+    <t>LPR ENERGIA OY</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -381,14 +443,114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1A0006-AF6A-4106-8A0D-947B7BA43FF6}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A727" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A2">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>21444874.199999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A3">
+        <v>77161</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>1128916.99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A4">
+        <v>56132</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>554139.65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A5">
+        <v>23551</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <v>530800.51999999979</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A6">
+        <v>38975</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>491215.86999999988</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Harjoitustyö_Ryhmä5_Jeff/Data/Toimittajarekisteri.xlsx
+++ b/Harjoitustyö_Ryhmä5_Jeff/Data/Toimittajarekisteri.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/75ad193d0551a0b3/Asiakirjat/GitHub/UiPath_Jeff/Harjoitustyö_Ryhmä5_Jeff/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{C8F535F1-D860-498C-B71A-D55245652788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A3500D3-A70A-43B7-91D5-A559AB89FE19}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{C8F535F1-D860-498C-B71A-D55245652788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{941CA96A-5157-4F6D-9809-D394CA33C19D}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="20186" windowHeight="12800" xr2:uid="{F0EDB271-B87F-4FD9-8480-9C455521B989}"/>
+    <workbookView xWindow="2507" yWindow="0" windowWidth="17493" windowHeight="12613" xr2:uid="{F0EDB271-B87F-4FD9-8480-9C455521B989}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,68 +32,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>Toimittajanro</t>
-  </si>
-  <si>
-    <t>Toimittaja</t>
-  </si>
-  <si>
-    <t>Summa</t>
-  </si>
-  <si>
-    <t>Y-Tunnus</t>
-  </si>
-  <si>
-    <t>Osoite</t>
-  </si>
-  <si>
-    <t>Postinumero</t>
-  </si>
-  <si>
-    <t>Kaupunki</t>
-  </si>
-  <si>
-    <t>Tilinro</t>
-  </si>
-  <si>
-    <t>Pankki</t>
-  </si>
-  <si>
-    <t>0725937-3</t>
-  </si>
-  <si>
-    <t>E-K SOSIAALI- JA TERVEYSPIIRI</t>
-  </si>
-  <si>
-    <t>0162017-2</t>
-  </si>
-  <si>
-    <t>SAIMAAN TUKIPALVELUT OY</t>
-  </si>
-  <si>
-    <t>2752472-8</t>
-  </si>
-  <si>
-    <t>PALLAS RAKENNUS KAAKKOIS-SUOMI</t>
-  </si>
-  <si>
-    <t>2303725-2</t>
-  </si>
-  <si>
-    <t>PEAB INFRA OY</t>
-  </si>
-  <si>
-    <t>1796558-9</t>
-  </si>
-  <si>
-    <t>LPR ENERGIA OY</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -443,114 +381,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1A0006-AF6A-4106-8A0D-947B7BA43FF6}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A2">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>21444874.199999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A3">
-        <v>77161</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3">
-        <v>1128916.99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A4">
-        <v>56132</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4">
-        <v>554139.65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A5">
-        <v>23551</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5">
-        <v>530800.51999999979</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A6">
-        <v>38975</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6">
-        <v>491215.86999999988</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Harjoitustyö_Ryhmä5_Jeff/Data/Toimittajarekisteri.xlsx
+++ b/Harjoitustyö_Ryhmä5_Jeff/Data/Toimittajarekisteri.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/75ad193d0551a0b3/Asiakirjat/GitHub/UiPath_Jeff/Harjoitustyö_Ryhmä5_Jeff/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Valtteri.000\Documents\UiPath\Jeff\Harjoitustyö_Ryhmä5_Jeff\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{C8F535F1-D860-498C-B71A-D55245652788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{941CA96A-5157-4F6D-9809-D394CA33C19D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E67AE8-6CA5-4D56-A6E8-BCEF78A78026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2507" yWindow="0" windowWidth="17493" windowHeight="12613" xr2:uid="{F0EDB271-B87F-4FD9-8480-9C455521B989}"/>
+    <workbookView xWindow="2280" yWindow="2895" windowWidth="20790" windowHeight="11625" xr2:uid="{F0EDB271-B87F-4FD9-8480-9C455521B989}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,68 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>Toimittajanro</t>
+  </si>
+  <si>
+    <t>Y-Tunnus</t>
+  </si>
+  <si>
+    <t>Toimittaja</t>
+  </si>
+  <si>
+    <t>Summa</t>
+  </si>
+  <si>
+    <t>Osoite</t>
+  </si>
+  <si>
+    <t>Postinumero</t>
+  </si>
+  <si>
+    <t>Kaupunki</t>
+  </si>
+  <si>
+    <t>Tilinro</t>
+  </si>
+  <si>
+    <t>Pankki</t>
+  </si>
+  <si>
+    <t>0725937-3</t>
+  </si>
+  <si>
+    <t>E-K SOSIAALI- JA TERVEYSPIIRI</t>
+  </si>
+  <si>
+    <t>2977551-2</t>
+  </si>
+  <si>
+    <t>PEAB INDUSTRI OY</t>
+  </si>
+  <si>
+    <t>2752472-8</t>
+  </si>
+  <si>
+    <t>PALLAS RAKENNUS KAAKKOIS-SUOMI</t>
+  </si>
+  <si>
+    <t>0162017-2</t>
+  </si>
+  <si>
+    <t>SAIMAAN TUKIPALVELUT OY</t>
+  </si>
+  <si>
+    <t>1565583-5</t>
+  </si>
+  <si>
+    <t>YIT SUOMI OY</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -381,14 +443,114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1A0006-AF6A-4106-8A0D-947B7BA43FF6}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>21509717.18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>73978</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>860908.83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>77161</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>782500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>38975</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>560267.46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>67122</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <v>400000</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Harjoitustyö_Ryhmä5_Jeff/Data/Toimittajarekisteri.xlsx
+++ b/Harjoitustyö_Ryhmä5_Jeff/Data/Toimittajarekisteri.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Valtteri.000\Documents\UiPath\Jeff\Harjoitustyö_Ryhmä5_Jeff\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E67AE8-6CA5-4D56-A6E8-BCEF78A78026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782E3969-1620-42C6-9A50-52789EB7BB38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2895" windowWidth="20790" windowHeight="11625" xr2:uid="{F0EDB271-B87F-4FD9-8480-9C455521B989}"/>
+    <workbookView xWindow="285" yWindow="3720" windowWidth="27240" windowHeight="11625" xr2:uid="{F0EDB271-B87F-4FD9-8480-9C455521B989}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Toimittajanro</t>
   </si>
@@ -70,10 +70,13 @@
     <t>E-K SOSIAALI- JA TERVEYSPIIRI</t>
   </si>
   <si>
-    <t>2977551-2</t>
-  </si>
-  <si>
-    <t>PEAB INDUSTRI OY</t>
+    <t>0162017-2</t>
+  </si>
+  <si>
+    <t>SAIMAAN TUKIPALVELUT OY</t>
+  </si>
+  <si>
+    <t>Puhnro</t>
   </si>
   <si>
     <t>2752472-8</t>
@@ -82,16 +85,16 @@
     <t>PALLAS RAKENNUS KAAKKOIS-SUOMI</t>
   </si>
   <si>
-    <t>0162017-2</t>
-  </si>
-  <si>
-    <t>SAIMAAN TUKIPALVELUT OY</t>
-  </si>
-  <si>
-    <t>1565583-5</t>
-  </si>
-  <si>
-    <t>YIT SUOMI OY</t>
+    <t>2303725-2</t>
+  </si>
+  <si>
+    <t>PEAB INFRA OY</t>
+  </si>
+  <si>
+    <t>1796558-9</t>
+  </si>
+  <si>
+    <t>LPR ENERGIA OY</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1A0006-AF6A-4106-8A0D-947B7BA43FF6}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
@@ -451,7 +454,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -479,8 +482,11 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>11</v>
       </c>
@@ -491,63 +497,63 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>21509717.18</v>
+        <v>21444874.199999999</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>73978</v>
+        <v>77161</v>
       </c>
       <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>1128916.99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>56132</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <v>554139.65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>23551</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>530800.51999999979</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>38975</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="D3">
-        <v>860908.83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>77161</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4">
-        <v>782500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>38975</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5">
-        <v>560267.46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>67122</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
       <c r="D6">
-        <v>400000</v>
+        <v>491215.86999999988</v>
       </c>
     </row>
   </sheetData>

--- a/Harjoitustyö_Ryhmä5_Jeff/Data/Toimittajarekisteri.xlsx
+++ b/Harjoitustyö_Ryhmä5_Jeff/Data/Toimittajarekisteri.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Valtteri.000\Documents\UiPath\Jeff\Harjoitustyö_Ryhmä5_Jeff\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782E3969-1620-42C6-9A50-52789EB7BB38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57ED4C00-434A-48B6-AE13-17E7AF6A2FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="3720" windowWidth="27240" windowHeight="11625" xr2:uid="{F0EDB271-B87F-4FD9-8480-9C455521B989}"/>
+    <workbookView xWindow="825" yWindow="1440" windowWidth="27240" windowHeight="11625" xr2:uid="{D885E004-FCB0-483B-9CA5-31621B5CF81C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,31 +64,31 @@
     <t>Pankki</t>
   </si>
   <si>
+    <t>Puhnro</t>
+  </si>
+  <si>
     <t>0725937-3</t>
   </si>
   <si>
     <t>E-K SOSIAALI- JA TERVEYSPIIRI</t>
   </si>
   <si>
+    <t>2752472-8</t>
+  </si>
+  <si>
+    <t>PALLAS RAKENNUS KAAKKOIS-SUOMI</t>
+  </si>
+  <si>
+    <t>1772433-9</t>
+  </si>
+  <si>
+    <t>SKANSKA TALONRAKENNUS OY ITÄ-S</t>
+  </si>
+  <si>
     <t>0162017-2</t>
   </si>
   <si>
     <t>SAIMAAN TUKIPALVELUT OY</t>
-  </si>
-  <si>
-    <t>Puhnro</t>
-  </si>
-  <si>
-    <t>2752472-8</t>
-  </si>
-  <si>
-    <t>PALLAS RAKENNUS KAAKKOIS-SUOMI</t>
-  </si>
-  <si>
-    <t>2303725-2</t>
-  </si>
-  <si>
-    <t>PEAB INFRA OY</t>
   </si>
   <si>
     <t>1796558-9</t>
@@ -445,12 +445,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1A0006-AF6A-4106-8A0D-947B7BA43FF6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0989062C-6870-4A7B-9432-2EF358AF4A3E}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -483,7 +481,7 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -491,13 +489,13 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2">
-        <v>21444874.199999999</v>
+        <v>21429038.520000003</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -505,55 +503,55 @@
         <v>77161</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>1128916.99</v>
+        <v>1015000</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>56132</v>
+        <v>17068</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>554139.65</v>
+        <v>758988.22</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>23551</v>
+        <v>38975</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5">
-        <v>530800.51999999979</v>
+        <v>674800.37999999989</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>38975</v>
+        <v>23551</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>491215.86999999988</v>
+        <v>482813.66000000015</v>
       </c>
     </row>
   </sheetData>

--- a/Harjoitustyö_Ryhmä5_Jeff/Data/Toimittajarekisteri.xlsx
+++ b/Harjoitustyö_Ryhmä5_Jeff/Data/Toimittajarekisteri.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Valtteri.000\Documents\UiPath\Jeff\Harjoitustyö_Ryhmä5_Jeff\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57ED4C00-434A-48B6-AE13-17E7AF6A2FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DFF95B-74D5-426D-BA59-2551D8263D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="1440" windowWidth="27240" windowHeight="11625" xr2:uid="{D885E004-FCB0-483B-9CA5-31621B5CF81C}"/>
+    <workbookView xWindow="825" yWindow="1440" windowWidth="27240" windowHeight="11625" xr2:uid="{2A2BBACE-0EDB-48F8-BAD7-D719C19F2615}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -73,28 +73,28 @@
     <t>E-K SOSIAALI- JA TERVEYSPIIRI</t>
   </si>
   <si>
+    <t>1565583-5</t>
+  </si>
+  <si>
+    <t>YIT SUOMI OY</t>
+  </si>
+  <si>
+    <t>0165069-7</t>
+  </si>
+  <si>
+    <t>SAVONLINJA OY</t>
+  </si>
+  <si>
+    <t>0162017-2</t>
+  </si>
+  <si>
+    <t>SAIMAAN TUKIPALVELUT OY</t>
+  </si>
+  <si>
     <t>2752472-8</t>
   </si>
   <si>
     <t>PALLAS RAKENNUS KAAKKOIS-SUOMI</t>
-  </si>
-  <si>
-    <t>1772433-9</t>
-  </si>
-  <si>
-    <t>SKANSKA TALONRAKENNUS OY ITÄ-S</t>
-  </si>
-  <si>
-    <t>0162017-2</t>
-  </si>
-  <si>
-    <t>SAIMAAN TUKIPALVELUT OY</t>
-  </si>
-  <si>
-    <t>1796558-9</t>
-  </si>
-  <si>
-    <t>LPR ENERGIA OY</t>
   </si>
 </sst>
 </file>
@@ -445,7 +445,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0989062C-6870-4A7B-9432-2EF358AF4A3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1063DCF7-DD7E-46FD-98EA-7CD6A8DAC87D}">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -495,12 +495,12 @@
         <v>11</v>
       </c>
       <c r="D2">
-        <v>21429038.520000003</v>
+        <v>21378405.250000004</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>77161</v>
+        <v>67122</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -509,21 +509,21 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>1015000</v>
+        <v>1535000</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>17068</v>
+        <v>77161</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>758988.22</v>
+        <v>565000</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -537,21 +537,21 @@
         <v>17</v>
       </c>
       <c r="D5">
-        <v>674800.37999999989</v>
+        <v>507277.5</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>23551</v>
+        <v>34912</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>482813.66000000015</v>
+        <v>421700.85000000003</v>
       </c>
     </row>
   </sheetData>

--- a/Harjoitustyö_Ryhmä5_Jeff/Data/Toimittajarekisteri.xlsx
+++ b/Harjoitustyö_Ryhmä5_Jeff/Data/Toimittajarekisteri.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Valtteri.000\Documents\UiPath\Jeff\Harjoitustyö_Ryhmä5_Jeff\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DFF95B-74D5-426D-BA59-2551D8263D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD759111-FAC9-4F1A-8912-591EE7806940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="825" yWindow="1440" windowWidth="27240" windowHeight="11625" xr2:uid="{2A2BBACE-0EDB-48F8-BAD7-D719C19F2615}"/>
   </bookViews>
@@ -73,18 +73,6 @@
     <t>E-K SOSIAALI- JA TERVEYSPIIRI</t>
   </si>
   <si>
-    <t>1565583-5</t>
-  </si>
-  <si>
-    <t>YIT SUOMI OY</t>
-  </si>
-  <si>
-    <t>0165069-7</t>
-  </si>
-  <si>
-    <t>SAVONLINJA OY</t>
-  </si>
-  <si>
     <t>0162017-2</t>
   </si>
   <si>
@@ -95,6 +83,18 @@
   </si>
   <si>
     <t>PALLAS RAKENNUS KAAKKOIS-SUOMI</t>
+  </si>
+  <si>
+    <t>1796558-9</t>
+  </si>
+  <si>
+    <t>LPR ENERGIA OY</t>
+  </si>
+  <si>
+    <t>0246246-0</t>
+  </si>
+  <si>
+    <t>KANSANELÄKELAITOS</t>
   </si>
 </sst>
 </file>
@@ -495,40 +495,40 @@
         <v>11</v>
       </c>
       <c r="D2">
-        <v>21378405.250000004</v>
+        <v>21376090</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>67122</v>
+        <v>77161</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>1535000</v>
+        <v>710000</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>77161</v>
+        <v>38975</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>565000</v>
+        <v>450920.8</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>38975</v>
+        <v>23551</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
@@ -537,21 +537,21 @@
         <v>17</v>
       </c>
       <c r="D5">
-        <v>507277.5</v>
+        <v>264915.64999999985</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>34912</v>
+        <v>59753</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>421700.85000000003</v>
+        <v>261659.6</v>
       </c>
     </row>
   </sheetData>

--- a/Harjoitustyö_Ryhmä5_Jeff/Data/Toimittajarekisteri.xlsx
+++ b/Harjoitustyö_Ryhmä5_Jeff/Data/Toimittajarekisteri.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Valtteri.000\Documents\UiPath\Jeff\Harjoitustyö_Ryhmä5_Jeff\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD759111-FAC9-4F1A-8912-591EE7806940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDF0760-BC9A-4A25-BF02-343262BB6ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="1440" windowWidth="27240" windowHeight="11625" xr2:uid="{2A2BBACE-0EDB-48F8-BAD7-D719C19F2615}"/>
+    <workbookView xWindow="825" yWindow="1440" windowWidth="27240" windowHeight="11625" xr2:uid="{A8304A70-7AC2-4133-8FF2-74F71D65F500}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -73,28 +73,28 @@
     <t>E-K SOSIAALI- JA TERVEYSPIIRI</t>
   </si>
   <si>
+    <t>1565583-5</t>
+  </si>
+  <si>
+    <t>YIT SUOMI OY</t>
+  </si>
+  <si>
+    <t>2752472-8</t>
+  </si>
+  <si>
+    <t>PALLAS RAKENNUS KAAKKOIS-SUOMI</t>
+  </si>
+  <si>
+    <t>0206823-6</t>
+  </si>
+  <si>
+    <t>LPR MUSIIKKIOPISTO</t>
+  </si>
+  <si>
     <t>0162017-2</t>
   </si>
   <si>
     <t>SAIMAAN TUKIPALVELUT OY</t>
-  </si>
-  <si>
-    <t>2752472-8</t>
-  </si>
-  <si>
-    <t>PALLAS RAKENNUS KAAKKOIS-SUOMI</t>
-  </si>
-  <si>
-    <t>1796558-9</t>
-  </si>
-  <si>
-    <t>LPR ENERGIA OY</t>
-  </si>
-  <si>
-    <t>0246246-0</t>
-  </si>
-  <si>
-    <t>KANSANELÄKELAITOS</t>
   </si>
 </sst>
 </file>
@@ -445,7 +445,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1063DCF7-DD7E-46FD-98EA-7CD6A8DAC87D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C74044E3-B920-4F36-B9CA-7E6EE6914CC2}">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -495,40 +495,40 @@
         <v>11</v>
       </c>
       <c r="D2">
-        <v>21376090</v>
+        <v>21342409.199999999</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>77161</v>
+        <v>67122</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>710000</v>
+        <v>1010000</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>38975</v>
+        <v>77161</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>450920.8</v>
+        <v>622500</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>23551</v>
+        <v>425</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
@@ -537,12 +537,12 @@
         <v>17</v>
       </c>
       <c r="D5">
-        <v>264915.64999999985</v>
+        <v>551385</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>59753</v>
+        <v>38975</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
@@ -551,7 +551,7 @@
         <v>19</v>
       </c>
       <c r="D6">
-        <v>261659.6</v>
+        <v>449532.92999999988</v>
       </c>
     </row>
   </sheetData>
